--- a/data/lesson_tracker.xlsx
+++ b/data/lesson_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markclifford/_dev/batch_invoice_generator/Batch-Invoice-Generator/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85C02DC-50FD-7B40-9180-5D4517FA1873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FC3D61-3590-594A-9E11-B1842F19D3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{73D912B5-EF45-5348-B0F1-17E7A70052D5}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{73D912B5-EF45-5348-B0F1-17E7A70052D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Student</t>
   </si>
@@ -144,6 +144,21 @@
   </si>
   <si>
     <t>mcneil.andrew@gmail.com</t>
+  </si>
+  <si>
+    <t>Invoice_pdf</t>
+  </si>
+  <si>
+    <t>Cormier</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Kieth Cormier</t>
+  </si>
+  <si>
+    <t>vplows@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -204,12 +219,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E06B2F-C809-C94F-B71B-EE0002F1CF38}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,7 +557,7 @@
     <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -572,8 +588,11 @@
       <c r="J1" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -606,7 +625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -623,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F8" si="0">E3*C3</f>
+        <f t="shared" ref="F3:F9" si="0">E3*C3</f>
         <v>105</v>
       </c>
       <c r="G3" s="2">
@@ -639,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -669,7 +688,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -699,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -729,7 +748,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -762,7 +781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -793,10 +812,41 @@
       </c>
       <c r="J8" s="4" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="G9" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>